--- a/bearing_list.xlsx
+++ b/bearing_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win10\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82778490-4519-4266-A945-8C118071D6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC60D45-7270-4F09-A771-D18CABFAA71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32745" yWindow="420" windowWidth="19425" windowHeight="15180" xr2:uid="{716A6EFC-A4D9-4908-A716-F54AAFAD7FB9}"/>
+    <workbookView xWindow="32745" yWindow="300" windowWidth="19425" windowHeight="15180" xr2:uid="{716A6EFC-A4D9-4908-A716-F54AAFAD7FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -508,273 +508,273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43C6401-A843-485A-92F0-1D1DB74F7972}">
-  <dimension ref="B3:H13"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.625" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.625" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>125</v>
+      </c>
+      <c r="E2" s="1">
+        <v>125</v>
+      </c>
+      <c r="F2" s="1">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1">
-        <v>125</v>
-      </c>
-      <c r="F4" s="1">
-        <v>125</v>
-      </c>
-      <c r="G4" s="1">
-        <v>31</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1">
+      <c r="D3" s="1">
+        <v>125</v>
+      </c>
+      <c r="E3" s="2">
+        <v>125</v>
+      </c>
+      <c r="F3" s="2">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1">
+        <v>125</v>
+      </c>
+      <c r="E4" s="2">
+        <v>125</v>
+      </c>
+      <c r="F4" s="2">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
+        <v>125</v>
+      </c>
+      <c r="E5" s="2">
         <v>125</v>
       </c>
       <c r="F5" s="2">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2">
-        <v>31</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>125</v>
+      </c>
+      <c r="E6" s="2">
         <v>125</v>
       </c>
       <c r="F6" s="2">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2">
-        <v>31</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>125</v>
+      </c>
+      <c r="E7" s="2">
         <v>125</v>
       </c>
       <c r="F7" s="2">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="G7" s="2">
-        <v>31</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3" t="s">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="1">
+      <c r="D8" s="1">
+        <v>125</v>
+      </c>
+      <c r="E8" s="2">
         <v>125</v>
       </c>
       <c r="F8" s="2">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="G8" s="2">
-        <v>31</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1">
+        <v>125</v>
+      </c>
+      <c r="E9" s="2">
         <v>125</v>
       </c>
       <c r="F9" s="2">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="G9" s="2">
-        <v>31</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1">
+        <v>125</v>
+      </c>
+      <c r="E10" s="2">
         <v>125</v>
       </c>
       <c r="F10" s="2">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="G10" s="2">
-        <v>31</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1">
+        <v>125</v>
+      </c>
+      <c r="E11" s="2">
         <v>125</v>
       </c>
       <c r="F11" s="2">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="G11" s="2">
-        <v>31</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="1">
-        <v>125</v>
-      </c>
-      <c r="F12" s="2">
-        <v>125</v>
-      </c>
-      <c r="G12" s="2">
-        <v>31</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="1">
-        <v>125</v>
-      </c>
-      <c r="F13" s="2">
-        <v>125</v>
-      </c>
-      <c r="G13" s="2">
-        <v>31</v>
-      </c>
-      <c r="H13" s="2">
         <v>1.6</v>
       </c>
     </row>

--- a/bearing_list.xlsx
+++ b/bearing_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC60D45-7270-4F09-A771-D18CABFAA71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE192D33-EB29-4026-9596-8835F167C694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32745" yWindow="300" windowWidth="19425" windowHeight="15180" xr2:uid="{716A6EFC-A4D9-4908-A716-F54AAFAD7FB9}"/>
   </bookViews>
@@ -178,21 +178,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,46 +513,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.625" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1">
@@ -572,209 +570,209 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>125</v>
       </c>
-      <c r="E3" s="2">
-        <v>125</v>
-      </c>
-      <c r="F3" s="2">
-        <v>31</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="E3" s="3">
+        <v>125</v>
+      </c>
+      <c r="F3" s="3">
+        <v>31</v>
+      </c>
+      <c r="G3" s="3">
         <v>1.6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1">
         <v>125</v>
       </c>
-      <c r="E4" s="2">
-        <v>125</v>
-      </c>
-      <c r="F4" s="2">
-        <v>31</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="E4" s="3">
+        <v>125</v>
+      </c>
+      <c r="F4" s="3">
+        <v>31</v>
+      </c>
+      <c r="G4" s="3">
         <v>1.6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1">
         <v>125</v>
       </c>
-      <c r="E5" s="2">
-        <v>125</v>
-      </c>
-      <c r="F5" s="2">
-        <v>31</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="E5" s="3">
+        <v>125</v>
+      </c>
+      <c r="F5" s="3">
+        <v>31</v>
+      </c>
+      <c r="G5" s="3">
         <v>1.6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="1">
         <v>125</v>
       </c>
-      <c r="E6" s="2">
-        <v>125</v>
-      </c>
-      <c r="F6" s="2">
-        <v>31</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="E6" s="3">
+        <v>125</v>
+      </c>
+      <c r="F6" s="3">
+        <v>31</v>
+      </c>
+      <c r="G6" s="3">
         <v>1.6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="1">
         <v>125</v>
       </c>
-      <c r="E7" s="2">
-        <v>125</v>
-      </c>
-      <c r="F7" s="2">
-        <v>31</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="E7" s="3">
+        <v>125</v>
+      </c>
+      <c r="F7" s="3">
+        <v>31</v>
+      </c>
+      <c r="G7" s="3">
         <v>1.6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="1">
         <v>125</v>
       </c>
-      <c r="E8" s="2">
-        <v>125</v>
-      </c>
-      <c r="F8" s="2">
-        <v>31</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="E8" s="3">
+        <v>125</v>
+      </c>
+      <c r="F8" s="3">
+        <v>31</v>
+      </c>
+      <c r="G8" s="3">
         <v>1.6</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="1">
         <v>125</v>
       </c>
-      <c r="E9" s="2">
-        <v>125</v>
-      </c>
-      <c r="F9" s="2">
-        <v>31</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="E9" s="3">
+        <v>125</v>
+      </c>
+      <c r="F9" s="3">
+        <v>31</v>
+      </c>
+      <c r="G9" s="3">
         <v>1.6</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="1">
         <v>125</v>
       </c>
-      <c r="E10" s="2">
-        <v>125</v>
-      </c>
-      <c r="F10" s="2">
-        <v>31</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="E10" s="3">
+        <v>125</v>
+      </c>
+      <c r="F10" s="3">
+        <v>31</v>
+      </c>
+      <c r="G10" s="3">
         <v>1.6</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="1">
         <v>125</v>
       </c>
-      <c r="E11" s="2">
-        <v>125</v>
-      </c>
-      <c r="F11" s="2">
-        <v>31</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="E11" s="3">
+        <v>125</v>
+      </c>
+      <c r="F11" s="3">
+        <v>31</v>
+      </c>
+      <c r="G11" s="3">
         <v>1.6</v>
       </c>
     </row>

--- a/bearing_list.xlsx
+++ b/bearing_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win10\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win10\Desktop\항공 운임 프로그램 테스트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE192D33-EB29-4026-9596-8835F167C694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB191FC3-4DB3-4535-9414-A7F29C147381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32745" yWindow="300" windowWidth="19425" windowHeight="15180" xr2:uid="{716A6EFC-A4D9-4908-A716-F54AAFAD7FB9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{716A6EFC-A4D9-4908-A716-F54AAFAD7FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>model</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,36 @@
   </si>
   <si>
     <t>NACHI</t>
+  </si>
+  <si>
+    <t>32024-X-XL#E</t>
+  </si>
+  <si>
+    <t>32024X</t>
+  </si>
+  <si>
+    <t>32024X-90KA1</t>
+  </si>
+  <si>
+    <t>32024X-9X026</t>
+  </si>
+  <si>
+    <t>32024X-9X245</t>
+  </si>
+  <si>
+    <t>32024XU</t>
+  </si>
+  <si>
+    <t>HR32024XJ                 5</t>
+  </si>
+  <si>
+    <t>T38</t>
+  </si>
+  <si>
+    <t>SKF0</t>
+  </si>
+  <si>
+    <t>NSKO</t>
   </si>
 </sst>
 </file>
@@ -178,17 +208,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -505,22 +541,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43C6401-A843-485A-92F0-1D1DB74F7972}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.625" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -582,13 +617,13 @@
       <c r="D3" s="1">
         <v>125</v>
       </c>
-      <c r="E3" s="3">
-        <v>125</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="E3" s="2">
+        <v>125</v>
+      </c>
+      <c r="F3" s="2">
         <v>31</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>1.6</v>
       </c>
     </row>
@@ -605,13 +640,13 @@
       <c r="D4" s="1">
         <v>125</v>
       </c>
-      <c r="E4" s="3">
-        <v>125</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="E4" s="2">
+        <v>125</v>
+      </c>
+      <c r="F4" s="2">
         <v>31</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>1.6</v>
       </c>
     </row>
@@ -628,13 +663,13 @@
       <c r="D5" s="1">
         <v>125</v>
       </c>
-      <c r="E5" s="3">
-        <v>125</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="E5" s="2">
+        <v>125</v>
+      </c>
+      <c r="F5" s="2">
         <v>31</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>1.6</v>
       </c>
     </row>
@@ -651,13 +686,13 @@
       <c r="D6" s="1">
         <v>125</v>
       </c>
-      <c r="E6" s="3">
-        <v>125</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E6" s="2">
+        <v>125</v>
+      </c>
+      <c r="F6" s="2">
         <v>31</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>1.6</v>
       </c>
     </row>
@@ -674,13 +709,13 @@
       <c r="D7" s="1">
         <v>125</v>
       </c>
-      <c r="E7" s="3">
-        <v>125</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E7" s="2">
+        <v>125</v>
+      </c>
+      <c r="F7" s="2">
         <v>31</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>1.6</v>
       </c>
     </row>
@@ -697,13 +732,13 @@
       <c r="D8" s="1">
         <v>125</v>
       </c>
-      <c r="E8" s="3">
-        <v>125</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="E8" s="2">
+        <v>125</v>
+      </c>
+      <c r="F8" s="2">
         <v>31</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>1.6</v>
       </c>
     </row>
@@ -720,13 +755,13 @@
       <c r="D9" s="1">
         <v>125</v>
       </c>
-      <c r="E9" s="3">
-        <v>125</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="2">
+        <v>125</v>
+      </c>
+      <c r="F9" s="2">
         <v>31</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>1.6</v>
       </c>
     </row>
@@ -743,13 +778,13 @@
       <c r="D10" s="1">
         <v>125</v>
       </c>
-      <c r="E10" s="3">
-        <v>125</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="2">
+        <v>125</v>
+      </c>
+      <c r="F10" s="2">
         <v>31</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>1.6</v>
       </c>
     </row>
@@ -766,18 +801,272 @@
       <c r="D11" s="1">
         <v>125</v>
       </c>
-      <c r="E11" s="3">
-        <v>125</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="E11" s="2">
+        <v>125</v>
+      </c>
+      <c r="F11" s="2">
         <v>31</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>1.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>32024</v>
+      </c>
+      <c r="B12" s="3">
+        <v>32024</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4">
+        <v>180</v>
+      </c>
+      <c r="E12" s="5">
+        <v>180</v>
+      </c>
+      <c r="F12" s="5">
+        <v>38</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>32024</v>
+      </c>
+      <c r="B13" s="3">
+        <v>32024</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4">
+        <v>180</v>
+      </c>
+      <c r="E13" s="5">
+        <v>180</v>
+      </c>
+      <c r="F13" s="5">
+        <v>38</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>32024</v>
+      </c>
+      <c r="B14" s="3">
+        <v>32024</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="4">
+        <v>180</v>
+      </c>
+      <c r="E14" s="5">
+        <v>180</v>
+      </c>
+      <c r="F14" s="5">
+        <v>38</v>
+      </c>
+      <c r="G14" s="5">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>32024</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4">
+        <v>180</v>
+      </c>
+      <c r="E15" s="5">
+        <v>180</v>
+      </c>
+      <c r="F15" s="5">
+        <v>38</v>
+      </c>
+      <c r="G15" s="5">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>32024</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4">
+        <v>180</v>
+      </c>
+      <c r="E16" s="5">
+        <v>180</v>
+      </c>
+      <c r="F16" s="5">
+        <v>38</v>
+      </c>
+      <c r="G16" s="5">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>32024</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="4">
+        <v>180</v>
+      </c>
+      <c r="E17" s="5">
+        <v>180</v>
+      </c>
+      <c r="F17" s="5">
+        <v>38</v>
+      </c>
+      <c r="G17" s="5">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>32024</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="4">
+        <v>180</v>
+      </c>
+      <c r="E18" s="5">
+        <v>180</v>
+      </c>
+      <c r="F18" s="5">
+        <v>38</v>
+      </c>
+      <c r="G18" s="5">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>32024</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="4">
+        <v>180</v>
+      </c>
+      <c r="E19" s="5">
+        <v>180</v>
+      </c>
+      <c r="F19" s="5">
+        <v>38</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>32024</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="4">
+        <v>180</v>
+      </c>
+      <c r="E20" s="5">
+        <v>180</v>
+      </c>
+      <c r="F20" s="5">
+        <v>38</v>
+      </c>
+      <c r="G20" s="5">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>32024</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="4">
+        <v>180</v>
+      </c>
+      <c r="E21" s="5">
+        <v>180</v>
+      </c>
+      <c r="F21" s="5">
+        <v>38</v>
+      </c>
+      <c r="G21" s="5">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>32024</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="4">
+        <v>180</v>
+      </c>
+      <c r="E22" s="5">
+        <v>180</v>
+      </c>
+      <c r="F22" s="5">
+        <v>38</v>
+      </c>
+      <c r="G22" s="5">
+        <v>2.16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>